--- a/customize_todo/美食大赛.xlsx
+++ b/customize_todo/美食大赛.xlsx
@@ -77,6 +77,9 @@
     <t>NO-2-8</t>
   </si>
   <si>
+    <t>酒杯灯</t>
+  </si>
+  <si>
     <t>小火炉,狮子座精灵,樱桃反弹布丁,瓜皮护罩</t>
   </si>
   <si>
@@ -111,9 +114,6 @@
   </si>
   <si>
     <t>NO-1-14</t>
-  </si>
-  <si>
-    <t>酒杯灯</t>
   </si>
   <si>
     <t>NO-2-6</t>
@@ -234,13 +234,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="金山云技术体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -581,12 +587,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -707,138 +728,147 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1379,1187 +1409,1294 @@
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="4" width="8.875" customWidth="1"/>
-    <col min="5" max="5" width="41.25" customWidth="1"/>
-    <col min="6" max="6" width="8.875" customWidth="1"/>
-    <col min="7" max="8" width="7" customWidth="1"/>
+    <col min="1" max="1" width="8.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="1" customWidth="1"/>
+    <col min="3" max="4" width="8.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2">
+      <c r="C2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="C3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4">
+      <c r="C4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5">
+      <c r="C5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6">
+      <c r="C6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="C7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G7">
+      <c r="E7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
+        <v>8</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="G8">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
+      <c r="B19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10">
-        <v>7</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="F47" s="1"/>
+      <c r="G47" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1">
+        <v>5</v>
+      </c>
+      <c r="G48" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1">
+        <v>4</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11">
-        <v>8</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" t="b">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="C56" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1">
+        <v>3</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="b">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" t="b">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" t="b">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
+      <c r="E63" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" t="b">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" t="b">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" t="b">
-        <v>0</v>
-      </c>
-      <c r="D22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" t="b">
-        <v>0</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" t="b">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" t="b">
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" t="b">
-        <v>0</v>
-      </c>
-      <c r="D26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" t="b">
-        <v>0</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" t="b">
-        <v>0</v>
-      </c>
-      <c r="D28" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" t="b">
-        <v>0</v>
-      </c>
-      <c r="D29" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" t="b">
-        <v>0</v>
-      </c>
-      <c r="D30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" t="b">
-        <v>0</v>
-      </c>
-      <c r="D31" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" t="b">
-        <v>0</v>
-      </c>
-      <c r="D32" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" t="b">
-        <v>0</v>
-      </c>
-      <c r="D33" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" t="b">
-        <v>0</v>
-      </c>
-      <c r="D34" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" t="b">
-        <v>0</v>
-      </c>
-      <c r="D35" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" t="b">
-        <v>0</v>
-      </c>
-      <c r="D36" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" t="s">
-        <v>50</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" t="b">
-        <v>1</v>
-      </c>
-      <c r="D37" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" t="b">
-        <v>1</v>
-      </c>
-      <c r="D38" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" t="b">
-        <v>1</v>
-      </c>
-      <c r="D39" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" t="b">
-        <v>1</v>
-      </c>
-      <c r="D40" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" t="b">
-        <v>1</v>
-      </c>
-      <c r="D41" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" t="b">
-        <v>1</v>
-      </c>
-      <c r="D42" t="s">
-        <v>9</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" t="b">
-        <v>1</v>
-      </c>
-      <c r="D43" t="s">
-        <v>9</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44" t="b">
-        <v>1</v>
-      </c>
-      <c r="D44" t="s">
-        <v>9</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" t="b">
-        <v>1</v>
-      </c>
-      <c r="D45" t="s">
-        <v>9</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" t="b">
-        <v>1</v>
-      </c>
-      <c r="D46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" t="b">
-        <v>1</v>
-      </c>
-      <c r="D47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48" t="b">
-        <v>1</v>
-      </c>
-      <c r="D48" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48">
-        <v>5</v>
-      </c>
-      <c r="G48">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" t="b">
-        <v>1</v>
-      </c>
-      <c r="D49" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" t="s">
-        <v>50</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" t="b">
-        <v>1</v>
-      </c>
-      <c r="D50" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>31</v>
-      </c>
-      <c r="C51" t="b">
-        <v>1</v>
-      </c>
-      <c r="D51" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51">
-        <v>4</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>33</v>
-      </c>
-      <c r="C52" t="b">
-        <v>1</v>
-      </c>
-      <c r="D52" t="s">
-        <v>9</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>34</v>
-      </c>
-      <c r="C53" t="b">
-        <v>1</v>
-      </c>
-      <c r="D53" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>35</v>
-      </c>
-      <c r="C54" t="b">
-        <v>1</v>
-      </c>
-      <c r="D54" t="s">
-        <v>9</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>36</v>
-      </c>
-      <c r="C55" t="b">
-        <v>1</v>
-      </c>
-      <c r="D55" t="s">
-        <v>9</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>20</v>
-      </c>
-      <c r="C56" t="b">
-        <v>1</v>
-      </c>
-      <c r="D56" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" t="s">
-        <v>39</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57" t="b">
-        <v>1</v>
-      </c>
-      <c r="D57" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" t="s">
-        <v>58</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58" t="b">
-        <v>1</v>
-      </c>
-      <c r="D58" t="s">
-        <v>9</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>60</v>
-      </c>
-      <c r="C59" t="b">
-        <v>1</v>
-      </c>
-      <c r="D59" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59">
-        <v>3</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>61</v>
-      </c>
-      <c r="C60" t="b">
-        <v>1</v>
-      </c>
-      <c r="D60" t="s">
-        <v>9</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>62</v>
-      </c>
-      <c r="C61" t="b">
-        <v>1</v>
-      </c>
-      <c r="D61" t="s">
-        <v>9</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>63</v>
-      </c>
-      <c r="C62" t="b">
-        <v>1</v>
-      </c>
-      <c r="D62" t="s">
-        <v>9</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>64</v>
-      </c>
-      <c r="C63" t="b">
-        <v>1</v>
-      </c>
-      <c r="D63" t="s">
-        <v>9</v>
-      </c>
-      <c r="E63" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63">
+      <c r="F63" s="1"/>
+      <c r="G63" s="1">
         <v>10000</v>
       </c>
     </row>
